--- a/development/L1Menu_Collisions2024_v1_1_0/PrescaleTable/L1Menu_Collisions2024_v1_1_0.xlsx
+++ b/development/L1Menu_Collisions2024_v1_1_0/PrescaleTable/L1Menu_Collisions2024_v1_1_0.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caterinaaruta/Desktop/L1Menus/L1Menu_Collisions2024_v1_1_0/PStables_dev/PrescaleTable/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caterinaaruta/Downloads/L1MenuRun3-master 25/development/L1Menu_Collisions2024_v1_1_0/PrescaleTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E82C9A-2609-8840-A72C-D16A184B3B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC40B0F-CE5E-8546-B13A-C269DD82DD9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1622,8 +1622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M391"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A325" workbookViewId="0">
-      <selection activeCell="C345" sqref="C345:M352"/>
+    <sheetView tabSelected="1" topLeftCell="A324" workbookViewId="0">
+      <selection activeCell="B343" sqref="B343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15459,7 +15459,7 @@
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A338">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B338" s="5" t="s">
         <v>397</v>
@@ -15500,7 +15500,7 @@
     </row>
     <row r="339" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A339">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B339" s="5" t="s">
         <v>398</v>

--- a/development/L1Menu_Collisions2024_v1_1_0/PrescaleTable/L1Menu_Collisions2024_v1_1_0.xlsx
+++ b/development/L1Menu_Collisions2024_v1_1_0/PrescaleTable/L1Menu_Collisions2024_v1_1_0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caterinaaruta/Downloads/L1MenuRun3-master 25/development/L1Menu_Collisions2024_v1_1_0/PrescaleTable/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonar\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC40B0F-CE5E-8546-B13A-C269DD82DD9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60EC5665-B229-4696-A441-BA2540BE9BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="404">
   <si>
     <t>Index</t>
   </si>
@@ -1210,15 +1210,6 @@
     <t>2p0E34_NoEcalTiming</t>
   </si>
   <si>
-    <t>L1_MHT_120</t>
-  </si>
-  <si>
-    <t>L1_MHT_150</t>
-  </si>
-  <si>
-    <t>L1_MHT_200</t>
-  </si>
-  <si>
     <t>L1_SingleMu0_Upt10_SQ14_BMTF</t>
   </si>
   <si>
@@ -1229,6 +1220,18 @@
   </si>
   <si>
     <t>L1_SingleMu0_Upt25_SQ14_BMTF</t>
+  </si>
+  <si>
+    <t>L1_MHT120</t>
+  </si>
+  <si>
+    <t>L1_MHT150</t>
+  </si>
+  <si>
+    <t>L1_MHT200</t>
+  </si>
+  <si>
+    <t>2p0E34_NoScouting</t>
   </si>
 </sst>
 </file>
@@ -1620,27 +1623,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M391"/>
+  <dimension ref="A1:N391"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A324" workbookViewId="0">
-      <selection activeCell="B343" sqref="B343"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="60.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
-    <col min="10" max="10" width="7.83203125" customWidth="1"/>
-    <col min="11" max="11" width="9.1640625" customWidth="1"/>
+    <col min="10" max="10" width="7.77734375" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" customWidth="1"/>
     <col min="12" max="12" width="10.33203125" customWidth="1"/>
-    <col min="13" max="13" width="9.83203125" customWidth="1"/>
+    <col min="13" max="13" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1680,8 +1683,11 @@
       <c r="M1" s="3" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N1" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1721,8 +1727,11 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1762,8 +1771,11 @@
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1803,8 +1815,11 @@
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1844,8 +1859,11 @@
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1885,8 +1903,11 @@
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1926,8 +1947,11 @@
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1967,8 +1991,11 @@
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2008,8 +2035,11 @@
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2049,8 +2079,11 @@
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2090,8 +2123,11 @@
       <c r="M11" s="1">
         <v>2000</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2131,8 +2167,11 @@
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2172,8 +2211,11 @@
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2213,8 +2255,11 @@
       <c r="M14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2254,8 +2299,11 @@
       <c r="M15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2295,8 +2343,11 @@
       <c r="M16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2336,8 +2387,11 @@
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2377,8 +2431,11 @@
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2418,8 +2475,11 @@
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2459,8 +2519,11 @@
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2500,8 +2563,11 @@
       <c r="M21">
         <v>22000</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N21">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2541,8 +2607,11 @@
       <c r="M22">
         <v>4400</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N22">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2582,8 +2651,11 @@
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2623,8 +2695,11 @@
       <c r="M24">
         <v>2200</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N24">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2664,8 +2739,11 @@
       <c r="M25" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2705,8 +2783,11 @@
       <c r="M26" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2746,8 +2827,11 @@
       <c r="M27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2787,8 +2871,11 @@
       <c r="M28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2828,8 +2915,11 @@
       <c r="M29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2869,8 +2959,11 @@
       <c r="M30">
         <v>325</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N30">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2910,8 +3003,11 @@
       <c r="M31">
         <v>210</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N31">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2951,8 +3047,11 @@
       <c r="M32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -2992,8 +3091,11 @@
       <c r="M33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -3033,8 +3135,11 @@
       <c r="M34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -3074,8 +3179,11 @@
       <c r="M35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -3115,8 +3223,11 @@
       <c r="M36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -3156,8 +3267,11 @@
       <c r="M37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -3197,8 +3311,11 @@
       <c r="M38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -3238,8 +3355,11 @@
       <c r="M39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -3279,8 +3399,11 @@
       <c r="M40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -3320,8 +3443,11 @@
       <c r="M41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -3361,8 +3487,11 @@
       <c r="M42">
         <v>1500</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N42">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -3402,8 +3531,11 @@
       <c r="M43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -3443,8 +3575,11 @@
       <c r="M44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -3484,8 +3619,11 @@
       <c r="M45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -3525,8 +3663,11 @@
       <c r="M46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -3566,8 +3707,11 @@
       <c r="M47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -3607,8 +3751,11 @@
       <c r="M48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -3648,8 +3795,11 @@
       <c r="M49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -3689,8 +3839,11 @@
       <c r="M50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -3730,8 +3883,11 @@
       <c r="M51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -3771,8 +3927,11 @@
       <c r="M52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -3812,8 +3971,11 @@
       <c r="M53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -3853,8 +4015,11 @@
       <c r="M54" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -3894,8 +4059,11 @@
       <c r="M55" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -3935,8 +4103,11 @@
       <c r="M56" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -3947,37 +4118,40 @@
         <v>0</v>
       </c>
       <c r="D57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M57" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="N57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -3988,37 +4162,40 @@
         <v>0</v>
       </c>
       <c r="D58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M58" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="N58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -4029,37 +4206,40 @@
         <v>0</v>
       </c>
       <c r="D59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M59" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -4099,8 +4279,11 @@
       <c r="M60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -4140,8 +4323,11 @@
       <c r="M61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -4181,8 +4367,11 @@
       <c r="M62">
         <v>190</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N62">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -4222,8 +4411,11 @@
       <c r="M63">
         <v>190</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N63">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -4263,8 +4455,11 @@
       <c r="M64">
         <v>100</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N64">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -4304,8 +4499,11 @@
       <c r="M65">
         <v>100</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N65">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -4345,8 +4543,11 @@
       <c r="M66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -4386,8 +4587,11 @@
       <c r="M67">
         <v>450</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N67">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -4427,8 +4631,11 @@
       <c r="M68">
         <v>50</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N68">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -4468,8 +4675,11 @@
       <c r="M69" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -4509,8 +4719,11 @@
       <c r="M70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -4550,8 +4763,11 @@
       <c r="M71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -4591,8 +4807,11 @@
       <c r="M72">
         <v>1000</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N72">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -4632,8 +4851,11 @@
       <c r="M73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
@@ -4673,8 +4895,11 @@
       <c r="M74" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
@@ -4714,8 +4939,11 @@
       <c r="M75" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
@@ -4755,8 +4983,11 @@
       <c r="M76">
         <v>700</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N76">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
@@ -4796,8 +5027,11 @@
       <c r="M77" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
@@ -4837,8 +5071,11 @@
       <c r="M78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -4878,8 +5115,11 @@
       <c r="M79">
         <v>800</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N79">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
@@ -4919,8 +5159,11 @@
       <c r="M80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
@@ -4960,8 +5203,11 @@
       <c r="M81">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
@@ -5001,8 +5247,11 @@
       <c r="M82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
@@ -5042,8 +5291,11 @@
       <c r="M83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
@@ -5083,8 +5335,11 @@
       <c r="M84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -5124,8 +5379,11 @@
       <c r="M85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
@@ -5165,8 +5423,11 @@
       <c r="M86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
@@ -5206,8 +5467,11 @@
       <c r="M87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
@@ -5247,8 +5511,11 @@
       <c r="M88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
@@ -5288,8 +5555,11 @@
       <c r="M89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
@@ -5329,8 +5599,11 @@
       <c r="M90">
         <v>100</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N90">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
@@ -5370,8 +5643,11 @@
       <c r="M91">
         <v>20</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N91">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
@@ -5411,8 +5687,11 @@
       <c r="M92">
         <v>35</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N92">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
@@ -5452,8 +5731,11 @@
       <c r="M93">
         <v>35</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N93">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
@@ -5493,8 +5775,11 @@
       <c r="M94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
@@ -5534,8 +5819,11 @@
       <c r="M95">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
@@ -5575,8 +5863,11 @@
       <c r="M96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
@@ -5616,8 +5907,11 @@
       <c r="M97" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>96</v>
       </c>
@@ -5657,8 +5951,11 @@
       <c r="M98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>97</v>
       </c>
@@ -5698,8 +5995,11 @@
       <c r="M99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>98</v>
       </c>
@@ -5739,8 +6039,11 @@
       <c r="M100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>99</v>
       </c>
@@ -5780,8 +6083,11 @@
       <c r="M101" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>100</v>
       </c>
@@ -5821,8 +6127,11 @@
       <c r="M102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>101</v>
       </c>
@@ -5862,8 +6171,11 @@
       <c r="M103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>102</v>
       </c>
@@ -5903,8 +6215,11 @@
       <c r="M104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>103</v>
       </c>
@@ -5944,8 +6259,11 @@
       <c r="M105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>104</v>
       </c>
@@ -5985,8 +6303,11 @@
       <c r="M106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>105</v>
       </c>
@@ -6026,8 +6347,11 @@
       <c r="M107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>106</v>
       </c>
@@ -6067,8 +6391,11 @@
       <c r="M108">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>107</v>
       </c>
@@ -6108,8 +6435,11 @@
       <c r="M109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>108</v>
       </c>
@@ -6149,8 +6479,11 @@
       <c r="M110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>109</v>
       </c>
@@ -6190,8 +6523,11 @@
       <c r="M111">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>110</v>
       </c>
@@ -6231,8 +6567,11 @@
       <c r="M112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>111</v>
       </c>
@@ -6272,8 +6611,11 @@
       <c r="M113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>112</v>
       </c>
@@ -6313,8 +6655,11 @@
       <c r="M114">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>113</v>
       </c>
@@ -6354,8 +6699,11 @@
       <c r="M115">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>114</v>
       </c>
@@ -6395,8 +6743,11 @@
       <c r="M116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>115</v>
       </c>
@@ -6436,8 +6787,11 @@
       <c r="M117">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>116</v>
       </c>
@@ -6477,8 +6831,11 @@
       <c r="M118">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>117</v>
       </c>
@@ -6518,8 +6875,11 @@
       <c r="M119">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -6559,8 +6919,11 @@
       <c r="M120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -6600,8 +6963,11 @@
       <c r="M121">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>122</v>
       </c>
@@ -6641,8 +7007,11 @@
       <c r="M122">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>123</v>
       </c>
@@ -6682,8 +7051,11 @@
       <c r="M123">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>124</v>
       </c>
@@ -6723,8 +7095,11 @@
       <c r="M124">
         <v>11000</v>
       </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N124">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>125</v>
       </c>
@@ -6764,8 +7139,11 @@
       <c r="M125">
         <v>400</v>
       </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N125">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>126</v>
       </c>
@@ -6805,8 +7183,11 @@
       <c r="M126">
         <v>400</v>
       </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N126">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>127</v>
       </c>
@@ -6846,8 +7227,11 @@
       <c r="M127">
         <v>256</v>
       </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N127">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>128</v>
       </c>
@@ -6887,8 +7271,11 @@
       <c r="M128">
         <v>52</v>
       </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N128">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>129</v>
       </c>
@@ -6928,8 +7315,11 @@
       <c r="M129">
         <v>52</v>
       </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N129">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>130</v>
       </c>
@@ -6969,8 +7359,11 @@
       <c r="M130">
         <v>13</v>
       </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N130">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>131</v>
       </c>
@@ -7010,8 +7403,11 @@
       <c r="M131">
         <v>3</v>
       </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N131">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>132</v>
       </c>
@@ -7051,8 +7447,11 @@
       <c r="M132">
         <v>3</v>
       </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N132">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>133</v>
       </c>
@@ -7092,8 +7491,11 @@
       <c r="M133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>134</v>
       </c>
@@ -7133,8 +7535,11 @@
       <c r="M134">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>135</v>
       </c>
@@ -7174,8 +7579,11 @@
       <c r="M135">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>136</v>
       </c>
@@ -7215,8 +7623,11 @@
       <c r="M136">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>137</v>
       </c>
@@ -7256,8 +7667,11 @@
       <c r="M137">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>138</v>
       </c>
@@ -7297,8 +7711,11 @@
       <c r="M138" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N138" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>139</v>
       </c>
@@ -7338,8 +7755,11 @@
       <c r="M139" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N139" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>140</v>
       </c>
@@ -7379,8 +7799,11 @@
       <c r="M140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>141</v>
       </c>
@@ -7420,8 +7843,11 @@
       <c r="M141">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>144</v>
       </c>
@@ -7461,8 +7887,11 @@
       <c r="M142">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>147</v>
       </c>
@@ -7502,8 +7931,11 @@
       <c r="M143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>148</v>
       </c>
@@ -7543,8 +7975,11 @@
       <c r="M144">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>149</v>
       </c>
@@ -7584,8 +8019,11 @@
       <c r="M145">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>150</v>
       </c>
@@ -7625,8 +8063,11 @@
       <c r="M146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>151</v>
       </c>
@@ -7666,8 +8107,11 @@
       <c r="M147">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>152</v>
       </c>
@@ -7707,8 +8151,11 @@
       <c r="M148">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>153</v>
       </c>
@@ -7748,8 +8195,11 @@
       <c r="M149">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>154</v>
       </c>
@@ -7789,8 +8239,11 @@
       <c r="M150">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>156</v>
       </c>
@@ -7830,8 +8283,11 @@
       <c r="M151">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>159</v>
       </c>
@@ -7871,8 +8327,11 @@
       <c r="M152">
         <v>44000</v>
       </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N152">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>160</v>
       </c>
@@ -7912,8 +8371,11 @@
       <c r="M153">
         <v>9000</v>
       </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N153">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>161</v>
       </c>
@@ -7953,8 +8415,11 @@
       <c r="M154">
         <v>1550</v>
       </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N154">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>162</v>
       </c>
@@ -7994,8 +8459,11 @@
       <c r="M155">
         <v>780</v>
       </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N155">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>163</v>
       </c>
@@ -8035,8 +8503,11 @@
       <c r="M156">
         <v>45</v>
       </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N156">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>164</v>
       </c>
@@ -8076,8 +8547,11 @@
       <c r="M157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>165</v>
       </c>
@@ -8117,8 +8591,11 @@
       <c r="M158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>166</v>
       </c>
@@ -8158,8 +8635,11 @@
       <c r="M159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>167</v>
       </c>
@@ -8199,8 +8679,11 @@
       <c r="M160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>168</v>
       </c>
@@ -8240,8 +8723,11 @@
       <c r="M161">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>169</v>
       </c>
@@ -8281,8 +8767,11 @@
       <c r="M162">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>170</v>
       </c>
@@ -8322,8 +8811,11 @@
       <c r="M163">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>171</v>
       </c>
@@ -8363,8 +8855,11 @@
       <c r="M164">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>172</v>
       </c>
@@ -8404,8 +8899,11 @@
       <c r="M165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>173</v>
       </c>
@@ -8445,8 +8943,11 @@
       <c r="M166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>174</v>
       </c>
@@ -8486,8 +8987,11 @@
       <c r="M167">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>175</v>
       </c>
@@ -8527,8 +9031,11 @@
       <c r="M168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>176</v>
       </c>
@@ -8568,8 +9075,11 @@
       <c r="M169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>177</v>
       </c>
@@ -8609,8 +9119,11 @@
       <c r="M170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>178</v>
       </c>
@@ -8650,8 +9163,11 @@
       <c r="M171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>179</v>
       </c>
@@ -8691,8 +9207,11 @@
       <c r="M172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>180</v>
       </c>
@@ -8732,8 +9251,11 @@
       <c r="M173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>181</v>
       </c>
@@ -8773,8 +9295,11 @@
       <c r="M174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>182</v>
       </c>
@@ -8814,8 +9339,11 @@
       <c r="M175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>183</v>
       </c>
@@ -8855,8 +9383,11 @@
       <c r="M176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>185</v>
       </c>
@@ -8896,8 +9427,11 @@
       <c r="M177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>186</v>
       </c>
@@ -8937,8 +9471,11 @@
       <c r="M178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>188</v>
       </c>
@@ -8978,8 +9515,11 @@
       <c r="M179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>189</v>
       </c>
@@ -9019,8 +9559,11 @@
       <c r="M180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>190</v>
       </c>
@@ -9060,8 +9603,11 @@
       <c r="M181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>191</v>
       </c>
@@ -9101,8 +9647,11 @@
       <c r="M182">
         <v>25</v>
       </c>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N182">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>192</v>
       </c>
@@ -9142,8 +9691,11 @@
       <c r="M183">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>193</v>
       </c>
@@ -9183,8 +9735,11 @@
       <c r="M184">
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>194</v>
       </c>
@@ -9224,8 +9779,11 @@
       <c r="M185">
         <v>1</v>
       </c>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>195</v>
       </c>
@@ -9265,8 +9823,11 @@
       <c r="M186">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>196</v>
       </c>
@@ -9306,8 +9867,11 @@
       <c r="M187">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>197</v>
       </c>
@@ -9347,13 +9911,16 @@
       <c r="M188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>198</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C189" s="5">
         <v>0</v>
@@ -9388,95 +9955,104 @@
       <c r="M189" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N189" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>199</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C190" s="5">
         <v>0</v>
       </c>
       <c r="D190" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E190" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F190" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G190" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H190" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I190" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J190" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K190" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L190" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M190" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="N190" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>200</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C191" s="5">
         <v>0</v>
       </c>
       <c r="D191" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E191" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F191" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G191" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H191" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I191" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J191" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K191" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L191" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M191" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="N191" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>201</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C192" s="5">
         <v>0</v>
@@ -9511,8 +10087,11 @@
       <c r="M192" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N192" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>214</v>
       </c>
@@ -9552,8 +10131,11 @@
       <c r="M193" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N193" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>215</v>
       </c>
@@ -9593,8 +10175,11 @@
       <c r="M194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>216</v>
       </c>
@@ -9634,8 +10219,11 @@
       <c r="M195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>217</v>
       </c>
@@ -9675,8 +10263,11 @@
       <c r="M196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>218</v>
       </c>
@@ -9716,8 +10307,11 @@
       <c r="M197">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>219</v>
       </c>
@@ -9757,8 +10351,11 @@
       <c r="M198">
         <v>1</v>
       </c>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>220</v>
       </c>
@@ -9798,8 +10395,11 @@
       <c r="M199">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>223</v>
       </c>
@@ -9839,8 +10439,11 @@
       <c r="M200">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>224</v>
       </c>
@@ -9880,8 +10483,11 @@
       <c r="M201">
         <v>1</v>
       </c>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>225</v>
       </c>
@@ -9921,8 +10527,11 @@
       <c r="M202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>226</v>
       </c>
@@ -9962,8 +10571,11 @@
       <c r="M203">
         <v>1</v>
       </c>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>227</v>
       </c>
@@ -10003,8 +10615,11 @@
       <c r="M204">
         <v>1</v>
       </c>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>228</v>
       </c>
@@ -10044,8 +10659,11 @@
       <c r="M205">
         <v>1</v>
       </c>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>229</v>
       </c>
@@ -10085,8 +10703,11 @@
       <c r="M206">
         <v>1</v>
       </c>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>230</v>
       </c>
@@ -10126,8 +10747,11 @@
       <c r="M207">
         <v>1</v>
       </c>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>231</v>
       </c>
@@ -10167,8 +10791,11 @@
       <c r="M208">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>234</v>
       </c>
@@ -10208,8 +10835,11 @@
       <c r="M209">
         <v>1</v>
       </c>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>235</v>
       </c>
@@ -10249,8 +10879,11 @@
       <c r="M210">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>238</v>
       </c>
@@ -10290,8 +10923,11 @@
       <c r="M211">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>239</v>
       </c>
@@ -10331,8 +10967,11 @@
       <c r="M212" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N212" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>240</v>
       </c>
@@ -10372,8 +11011,11 @@
       <c r="M213" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N213" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>241</v>
       </c>
@@ -10413,8 +11055,11 @@
       <c r="M214" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N214" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>242</v>
       </c>
@@ -10454,8 +11099,11 @@
       <c r="M215" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N215" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>243</v>
       </c>
@@ -10495,8 +11143,11 @@
       <c r="M216">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>244</v>
       </c>
@@ -10536,8 +11187,11 @@
       <c r="M217">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>245</v>
       </c>
@@ -10577,8 +11231,11 @@
       <c r="M218" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N218" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>248</v>
       </c>
@@ -10618,8 +11275,11 @@
       <c r="M219">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>249</v>
       </c>
@@ -10659,8 +11319,11 @@
       <c r="M220">
         <v>1</v>
       </c>
-    </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>250</v>
       </c>
@@ -10700,8 +11363,11 @@
       <c r="M221">
         <v>1</v>
       </c>
-    </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>257</v>
       </c>
@@ -10741,8 +11407,11 @@
       <c r="M222">
         <v>1</v>
       </c>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>258</v>
       </c>
@@ -10782,8 +11451,11 @@
       <c r="M223">
         <v>1</v>
       </c>
-    </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>259</v>
       </c>
@@ -10823,8 +11495,11 @@
       <c r="M224">
         <v>1</v>
       </c>
-    </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>263</v>
       </c>
@@ -10864,8 +11539,11 @@
       <c r="M225">
         <v>1</v>
       </c>
-    </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>264</v>
       </c>
@@ -10905,8 +11583,11 @@
       <c r="M226">
         <v>1</v>
       </c>
-    </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>266</v>
       </c>
@@ -10946,8 +11627,11 @@
       <c r="M227">
         <v>1</v>
       </c>
-    </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>267</v>
       </c>
@@ -10987,8 +11671,11 @@
       <c r="M228">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>268</v>
       </c>
@@ -11028,8 +11715,11 @@
       <c r="M229">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>269</v>
       </c>
@@ -11069,8 +11759,11 @@
       <c r="M230">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>270</v>
       </c>
@@ -11110,8 +11803,11 @@
       <c r="M231">
         <v>1</v>
       </c>
-    </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>271</v>
       </c>
@@ -11151,8 +11847,11 @@
       <c r="M232">
         <v>1</v>
       </c>
-    </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>272</v>
       </c>
@@ -11192,8 +11891,11 @@
       <c r="M233">
         <v>1</v>
       </c>
-    </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>278</v>
       </c>
@@ -11233,8 +11935,11 @@
       <c r="M234" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N234" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>279</v>
       </c>
@@ -11274,8 +11979,11 @@
       <c r="M235">
         <v>1</v>
       </c>
-    </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>280</v>
       </c>
@@ -11315,8 +12023,11 @@
       <c r="M236">
         <v>1</v>
       </c>
-    </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>281</v>
       </c>
@@ -11356,8 +12067,11 @@
       <c r="M237">
         <v>1</v>
       </c>
-    </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>282</v>
       </c>
@@ -11397,8 +12111,11 @@
       <c r="M238">
         <v>1</v>
       </c>
-    </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>283</v>
       </c>
@@ -11438,8 +12155,11 @@
       <c r="M239">
         <v>1</v>
       </c>
-    </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>284</v>
       </c>
@@ -11479,8 +12199,11 @@
       <c r="M240">
         <v>1</v>
       </c>
-    </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>286</v>
       </c>
@@ -11520,8 +12243,11 @@
       <c r="M241">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>287</v>
       </c>
@@ -11561,8 +12287,11 @@
       <c r="M242">
         <v>1</v>
       </c>
-    </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>288</v>
       </c>
@@ -11602,8 +12331,11 @@
       <c r="M243">
         <v>1</v>
       </c>
-    </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>290</v>
       </c>
@@ -11643,8 +12375,11 @@
       <c r="M244">
         <v>1</v>
       </c>
-    </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>291</v>
       </c>
@@ -11684,8 +12419,11 @@
       <c r="M245">
         <v>1</v>
       </c>
-    </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>298</v>
       </c>
@@ -11725,8 +12463,11 @@
       <c r="M246">
         <v>190</v>
       </c>
-    </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N246">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>305</v>
       </c>
@@ -11766,8 +12507,11 @@
       <c r="M247">
         <v>64000</v>
       </c>
-    </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N247">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>306</v>
       </c>
@@ -11807,8 +12551,11 @@
       <c r="M248">
         <v>17000</v>
       </c>
-    </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N248">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>307</v>
       </c>
@@ -11848,8 +12595,11 @@
       <c r="M249">
         <v>1500</v>
       </c>
-    </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N249">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>308</v>
       </c>
@@ -11889,8 +12639,11 @@
       <c r="M250">
         <v>350</v>
       </c>
-    </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N250">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>309</v>
       </c>
@@ -11930,8 +12683,11 @@
       <c r="M251">
         <v>1</v>
       </c>
-    </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>310</v>
       </c>
@@ -11971,8 +12727,11 @@
       <c r="M252">
         <v>1</v>
       </c>
-    </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>311</v>
       </c>
@@ -12012,8 +12771,11 @@
       <c r="M253">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>312</v>
       </c>
@@ -12053,8 +12815,11 @@
       <c r="M254">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>314</v>
       </c>
@@ -12094,8 +12859,11 @@
       <c r="M255">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>315</v>
       </c>
@@ -12135,8 +12903,11 @@
       <c r="M256">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>316</v>
       </c>
@@ -12176,8 +12947,11 @@
       <c r="M257">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>317</v>
       </c>
@@ -12217,8 +12991,11 @@
       <c r="M258">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>318</v>
       </c>
@@ -12258,8 +13035,11 @@
       <c r="M259">
         <v>1</v>
       </c>
-    </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>320</v>
       </c>
@@ -12299,8 +13079,11 @@
       <c r="M260">
         <v>28327</v>
       </c>
-    </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N260">
+        <v>28327</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>321</v>
       </c>
@@ -12340,8 +13123,11 @@
       <c r="M261">
         <v>1820</v>
       </c>
-    </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N261">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>322</v>
       </c>
@@ -12381,8 +13167,11 @@
       <c r="M262">
         <v>264</v>
       </c>
-    </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N262">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="263" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>323</v>
       </c>
@@ -12422,8 +13211,11 @@
       <c r="M263">
         <v>45</v>
       </c>
-    </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N263">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>324</v>
       </c>
@@ -12463,8 +13255,11 @@
       <c r="M264">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>327</v>
       </c>
@@ -12504,8 +13299,11 @@
       <c r="M265">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>328</v>
       </c>
@@ -12545,8 +13343,11 @@
       <c r="M266">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>329</v>
       </c>
@@ -12586,8 +13387,11 @@
       <c r="M267">
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>330</v>
       </c>
@@ -12627,8 +13431,11 @@
       <c r="M268">
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>334</v>
       </c>
@@ -12668,8 +13475,11 @@
       <c r="M269">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>335</v>
       </c>
@@ -12709,8 +13519,11 @@
       <c r="M270">
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>336</v>
       </c>
@@ -12750,8 +13563,11 @@
       <c r="M271">
         <v>1</v>
       </c>
-    </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>337</v>
       </c>
@@ -12791,8 +13607,11 @@
       <c r="M272">
         <v>1</v>
       </c>
-    </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>340</v>
       </c>
@@ -12832,8 +13651,11 @@
       <c r="M273">
         <v>8400</v>
       </c>
-    </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N273">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="274" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>341</v>
       </c>
@@ -12873,8 +13695,11 @@
       <c r="M274">
         <v>170</v>
       </c>
-    </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N274">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="275" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>342</v>
       </c>
@@ -12914,8 +13739,11 @@
       <c r="M275">
         <v>70</v>
       </c>
-    </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N275">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="276" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>343</v>
       </c>
@@ -12955,8 +13783,11 @@
       <c r="M276">
         <v>1</v>
       </c>
-    </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>345</v>
       </c>
@@ -12996,8 +13827,11 @@
       <c r="M277">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>346</v>
       </c>
@@ -13037,8 +13871,11 @@
       <c r="M278">
         <v>1</v>
       </c>
-    </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>347</v>
       </c>
@@ -13078,8 +13915,11 @@
       <c r="M279">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>348</v>
       </c>
@@ -13119,8 +13959,11 @@
       <c r="M280">
         <v>1</v>
       </c>
-    </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>349</v>
       </c>
@@ -13160,8 +14003,11 @@
       <c r="M281">
         <v>1</v>
       </c>
-    </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>350</v>
       </c>
@@ -13201,8 +14047,11 @@
       <c r="M282">
         <v>1</v>
       </c>
-    </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>357</v>
       </c>
@@ -13242,8 +14091,11 @@
       <c r="M283">
         <v>1</v>
       </c>
-    </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>358</v>
       </c>
@@ -13283,8 +14135,11 @@
       <c r="M284" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N284" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>362</v>
       </c>
@@ -13324,8 +14179,11 @@
       <c r="M285" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N285" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>363</v>
       </c>
@@ -13365,8 +14223,11 @@
       <c r="M286" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N286" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>364</v>
       </c>
@@ -13406,8 +14267,11 @@
       <c r="M287" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N287" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>365</v>
       </c>
@@ -13447,8 +14311,11 @@
       <c r="M288" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N288" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>366</v>
       </c>
@@ -13488,8 +14355,11 @@
       <c r="M289" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N289" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>367</v>
       </c>
@@ -13529,8 +14399,11 @@
       <c r="M290" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N290" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>368</v>
       </c>
@@ -13570,8 +14443,11 @@
       <c r="M291" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N291" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>369</v>
       </c>
@@ -13611,8 +14487,11 @@
       <c r="M292" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N292" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>370</v>
       </c>
@@ -13652,8 +14531,11 @@
       <c r="M293" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N293" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>371</v>
       </c>
@@ -13693,8 +14575,11 @@
       <c r="M294" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N294" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>383</v>
       </c>
@@ -13734,8 +14619,11 @@
       <c r="M295">
         <v>1</v>
       </c>
-    </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>384</v>
       </c>
@@ -13775,8 +14663,11 @@
       <c r="M296">
         <v>1</v>
       </c>
-    </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>385</v>
       </c>
@@ -13816,8 +14707,11 @@
       <c r="M297">
         <v>1</v>
       </c>
-    </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>386</v>
       </c>
@@ -13857,8 +14751,11 @@
       <c r="M298">
         <v>1</v>
       </c>
-    </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>389</v>
       </c>
@@ -13898,8 +14795,11 @@
       <c r="M299">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>390</v>
       </c>
@@ -13939,8 +14839,11 @@
       <c r="M300">
         <v>1</v>
       </c>
-    </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>391</v>
       </c>
@@ -13980,8 +14883,11 @@
       <c r="M301">
         <v>100</v>
       </c>
-    </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N301">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="302" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>392</v>
       </c>
@@ -14021,8 +14927,11 @@
       <c r="M302">
         <v>50</v>
       </c>
-    </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N302">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="303" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>393</v>
       </c>
@@ -14062,8 +14971,11 @@
       <c r="M303">
         <v>1</v>
       </c>
-    </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>394</v>
       </c>
@@ -14103,8 +15015,11 @@
       <c r="M304">
         <v>1</v>
       </c>
-    </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>395</v>
       </c>
@@ -14144,8 +15059,11 @@
       <c r="M305">
         <v>1</v>
       </c>
-    </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>396</v>
       </c>
@@ -14185,8 +15103,11 @@
       <c r="M306">
         <v>1</v>
       </c>
-    </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>397</v>
       </c>
@@ -14226,8 +15147,11 @@
       <c r="M307">
         <v>1</v>
       </c>
-    </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>398</v>
       </c>
@@ -14267,8 +15191,11 @@
       <c r="M308">
         <v>1</v>
       </c>
-    </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>402</v>
       </c>
@@ -14308,8 +15235,11 @@
       <c r="M309">
         <v>11400</v>
       </c>
-    </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N309">
+        <v>11400</v>
+      </c>
+    </row>
+    <row r="310" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>403</v>
       </c>
@@ -14349,8 +15279,11 @@
       <c r="M310">
         <v>4100</v>
       </c>
-    </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N310">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="311" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>404</v>
       </c>
@@ -14390,8 +15323,11 @@
       <c r="M311">
         <v>1600</v>
       </c>
-    </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N311">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="312" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>405</v>
       </c>
@@ -14431,8 +15367,11 @@
       <c r="M312">
         <v>500</v>
       </c>
-    </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N312">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="313" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>406</v>
       </c>
@@ -14472,8 +15411,11 @@
       <c r="M313">
         <v>1</v>
       </c>
-    </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>407</v>
       </c>
@@ -14513,8 +15455,11 @@
       <c r="M314">
         <v>1</v>
       </c>
-    </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>408</v>
       </c>
@@ -14554,8 +15499,11 @@
       <c r="M315">
         <v>1</v>
       </c>
-    </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>409</v>
       </c>
@@ -14595,8 +15543,11 @@
       <c r="M316">
         <v>1</v>
       </c>
-    </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>410</v>
       </c>
@@ -14636,8 +15587,11 @@
       <c r="M317">
         <v>1</v>
       </c>
-    </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>412</v>
       </c>
@@ -14677,8 +15631,11 @@
       <c r="M318">
         <v>1</v>
       </c>
-    </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>416</v>
       </c>
@@ -14718,8 +15675,11 @@
       <c r="M319">
         <v>0</v>
       </c>
-    </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>417</v>
       </c>
@@ -14759,8 +15719,11 @@
       <c r="M320">
         <v>1</v>
       </c>
-    </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>418</v>
       </c>
@@ -14800,8 +15763,11 @@
       <c r="M321">
         <v>0</v>
       </c>
-    </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>419</v>
       </c>
@@ -14841,8 +15807,11 @@
       <c r="M322">
         <v>0</v>
       </c>
-    </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>420</v>
       </c>
@@ -14882,8 +15851,11 @@
       <c r="M323">
         <v>1</v>
       </c>
-    </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>421</v>
       </c>
@@ -14923,8 +15895,11 @@
       <c r="M324">
         <v>1</v>
       </c>
-    </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>422</v>
       </c>
@@ -14964,8 +15939,11 @@
       <c r="M325">
         <v>1</v>
       </c>
-    </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>423</v>
       </c>
@@ -15005,8 +15983,11 @@
       <c r="M326">
         <v>1</v>
       </c>
-    </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>424</v>
       </c>
@@ -15046,8 +16027,11 @@
       <c r="M327">
         <v>1</v>
       </c>
-    </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>425</v>
       </c>
@@ -15087,8 +16071,11 @@
       <c r="M328">
         <v>1</v>
       </c>
-    </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>426</v>
       </c>
@@ -15128,8 +16115,11 @@
       <c r="M329">
         <v>1</v>
       </c>
-    </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>427</v>
       </c>
@@ -15169,8 +16159,11 @@
       <c r="M330">
         <v>0</v>
       </c>
-    </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>428</v>
       </c>
@@ -15210,8 +16203,11 @@
       <c r="M331">
         <v>0</v>
       </c>
-    </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>429</v>
       </c>
@@ -15251,8 +16247,11 @@
       <c r="M332">
         <v>1</v>
       </c>
-    </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>430</v>
       </c>
@@ -15292,8 +16291,11 @@
       <c r="M333">
         <v>1</v>
       </c>
-    </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>431</v>
       </c>
@@ -15333,8 +16335,11 @@
       <c r="M334">
         <v>1</v>
       </c>
-    </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>432</v>
       </c>
@@ -15374,8 +16379,11 @@
       <c r="M335">
         <v>1</v>
       </c>
-    </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>433</v>
       </c>
@@ -15415,13 +16423,16 @@
       <c r="M336">
         <v>1</v>
       </c>
-    </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>434</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C337" s="5">
         <v>0</v>
@@ -15456,13 +16467,16 @@
       <c r="M337" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N337" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>435</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C338" s="5">
         <v>0</v>
@@ -15497,13 +16511,16 @@
       <c r="M338" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N338" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>436</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="C339" s="5">
         <v>0</v>
@@ -15538,8 +16555,11 @@
       <c r="M339" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N339" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>438</v>
       </c>
@@ -15579,8 +16599,11 @@
       <c r="M340" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N340" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>439</v>
       </c>
@@ -15620,8 +16643,11 @@
       <c r="M341" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N341" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>440</v>
       </c>
@@ -15661,8 +16687,11 @@
       <c r="M342" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N342" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>441</v>
       </c>
@@ -15702,8 +16731,11 @@
       <c r="M343" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N343" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>442</v>
       </c>
@@ -15743,8 +16775,11 @@
       <c r="M344" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N344" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>446</v>
       </c>
@@ -15784,8 +16819,11 @@
       <c r="M345">
         <v>0</v>
       </c>
-    </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>447</v>
       </c>
@@ -15825,8 +16863,11 @@
       <c r="M346">
         <v>0</v>
       </c>
-    </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>448</v>
       </c>
@@ -15866,8 +16907,11 @@
       <c r="M347">
         <v>0</v>
       </c>
-    </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>451</v>
       </c>
@@ -15907,8 +16951,11 @@
       <c r="M348">
         <v>0</v>
       </c>
-    </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>452</v>
       </c>
@@ -15948,8 +16995,11 @@
       <c r="M349">
         <v>0</v>
       </c>
-    </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>453</v>
       </c>
@@ -15989,8 +17039,11 @@
       <c r="M350">
         <v>0</v>
       </c>
-    </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>454</v>
       </c>
@@ -16030,8 +17083,11 @@
       <c r="M351">
         <v>0</v>
       </c>
-    </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>458</v>
       </c>
@@ -16071,8 +17127,11 @@
       <c r="M352">
         <v>0</v>
       </c>
-    </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>459</v>
       </c>
@@ -16112,8 +17171,11 @@
       <c r="M353">
         <v>17581</v>
       </c>
-    </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N353">
+        <v>17581</v>
+      </c>
+    </row>
+    <row r="354" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>460</v>
       </c>
@@ -16153,8 +17215,11 @@
       <c r="M354">
         <v>0</v>
       </c>
-    </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>461</v>
       </c>
@@ -16194,8 +17259,11 @@
       <c r="M355">
         <v>0</v>
       </c>
-    </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>462</v>
       </c>
@@ -16235,8 +17303,11 @@
       <c r="M356">
         <v>0</v>
       </c>
-    </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>463</v>
       </c>
@@ -16276,8 +17347,11 @@
       <c r="M357">
         <v>0</v>
       </c>
-    </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>464</v>
       </c>
@@ -16317,8 +17391,11 @@
       <c r="M358">
         <v>0</v>
       </c>
-    </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>465</v>
       </c>
@@ -16358,8 +17435,11 @@
       <c r="M359">
         <v>0</v>
       </c>
-    </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>466</v>
       </c>
@@ -16399,8 +17479,11 @@
       <c r="M360">
         <v>0</v>
       </c>
-    </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>467</v>
       </c>
@@ -16440,8 +17523,11 @@
       <c r="M361">
         <v>0</v>
       </c>
-    </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>468</v>
       </c>
@@ -16481,8 +17567,11 @@
       <c r="M362">
         <v>0</v>
       </c>
-    </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>469</v>
       </c>
@@ -16522,8 +17611,11 @@
       <c r="M363">
         <v>0</v>
       </c>
-    </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>471</v>
       </c>
@@ -16563,8 +17655,11 @@
       <c r="M364">
         <v>2239</v>
       </c>
-    </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N364">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="365" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>472</v>
       </c>
@@ -16604,8 +17699,11 @@
       <c r="M365">
         <v>1</v>
       </c>
-    </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>473</v>
       </c>
@@ -16645,8 +17743,11 @@
       <c r="M366">
         <v>0</v>
       </c>
-    </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>474</v>
       </c>
@@ -16686,8 +17787,11 @@
       <c r="M367">
         <v>0</v>
       </c>
-    </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>475</v>
       </c>
@@ -16727,8 +17831,11 @@
       <c r="M368">
         <v>0</v>
       </c>
-    </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>476</v>
       </c>
@@ -16768,8 +17875,11 @@
       <c r="M369">
         <v>0</v>
       </c>
-    </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>477</v>
       </c>
@@ -16809,8 +17919,11 @@
       <c r="M370">
         <v>56237</v>
       </c>
-    </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N370">
+        <v>56237</v>
+      </c>
+    </row>
+    <row r="371" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>478</v>
       </c>
@@ -16850,8 +17963,11 @@
       <c r="M371">
         <v>56237</v>
       </c>
-    </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N371">
+        <v>56237</v>
+      </c>
+    </row>
+    <row r="372" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>479</v>
       </c>
@@ -16891,8 +18007,11 @@
       <c r="M372">
         <v>59051</v>
       </c>
-    </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N372">
+        <v>59051</v>
+      </c>
+    </row>
+    <row r="373" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>480</v>
       </c>
@@ -16932,8 +18051,11 @@
       <c r="M373">
         <v>563</v>
       </c>
-    </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N373">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="374" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>482</v>
       </c>
@@ -16973,8 +18095,11 @@
       <c r="M374">
         <v>0</v>
       </c>
-    </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>483</v>
       </c>
@@ -17014,8 +18139,11 @@
       <c r="M375">
         <v>0</v>
       </c>
-    </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>484</v>
       </c>
@@ -17055,8 +18183,11 @@
       <c r="M376">
         <v>0</v>
       </c>
-    </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>485</v>
       </c>
@@ -17096,8 +18227,11 @@
       <c r="M377">
         <v>0</v>
       </c>
-    </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>486</v>
       </c>
@@ -17137,8 +18271,11 @@
       <c r="M378">
         <v>0</v>
       </c>
-    </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>487</v>
       </c>
@@ -17178,8 +18315,11 @@
       <c r="M379">
         <v>0</v>
       </c>
-    </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>488</v>
       </c>
@@ -17219,8 +18359,11 @@
       <c r="M380">
         <v>0</v>
       </c>
-    </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>489</v>
       </c>
@@ -17260,8 +18403,11 @@
       <c r="M381">
         <v>0</v>
       </c>
-    </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>490</v>
       </c>
@@ -17301,8 +18447,11 @@
       <c r="M382">
         <v>0</v>
       </c>
-    </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>491</v>
       </c>
@@ -17342,8 +18491,11 @@
       <c r="M383">
         <v>0</v>
       </c>
-    </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>492</v>
       </c>
@@ -17383,8 +18535,11 @@
       <c r="M384">
         <v>0</v>
       </c>
-    </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>494</v>
       </c>
@@ -17424,8 +18579,11 @@
       <c r="M385">
         <v>3</v>
       </c>
-    </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N385">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="386" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>500</v>
       </c>
@@ -17465,8 +18623,11 @@
       <c r="M386">
         <v>0</v>
       </c>
-    </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>501</v>
       </c>
@@ -17506,8 +18667,11 @@
       <c r="M387">
         <v>0</v>
       </c>
-    </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>503</v>
       </c>
@@ -17547,8 +18711,11 @@
       <c r="M388">
         <v>0</v>
       </c>
-    </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>504</v>
       </c>
@@ -17588,8 +18755,11 @@
       <c r="M389">
         <v>0</v>
       </c>
-    </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>505</v>
       </c>
@@ -17629,8 +18799,11 @@
       <c r="M390">
         <v>0</v>
       </c>
-    </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>506</v>
       </c>
@@ -17668,6 +18841,9 @@
         <v>0</v>
       </c>
       <c r="M391">
+        <v>0</v>
+      </c>
+      <c r="N391">
         <v>0</v>
       </c>
     </row>

--- a/development/L1Menu_Collisions2024_v1_1_0/PrescaleTable/L1Menu_Collisions2024_v1_1_0.xlsx
+++ b/development/L1Menu_Collisions2024_v1_1_0/PrescaleTable/L1Menu_Collisions2024_v1_1_0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonar\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caterinaaruta/Downloads/L1MenuRun3_PSupdate/development/L1Menu_Collisions2024_v1_1_0/PrescaleTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60EC5665-B229-4696-A441-BA2540BE9BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB87973-1D51-4A42-AFE7-7B89CD09597D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1625,25 +1625,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N391"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="O193" sqref="O193"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="60.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
-    <col min="10" max="10" width="7.77734375" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" customWidth="1"/>
+    <col min="10" max="10" width="7.83203125" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" customWidth="1"/>
     <col min="12" max="12" width="10.33203125" customWidth="1"/>
-    <col min="13" max="13" width="9.77734375" customWidth="1"/>
+    <col min="13" max="13" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1819,7 +1819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2127,7 +2127,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2347,7 +2347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2787,7 +2787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2963,7 +2963,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -3051,7 +3051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -3139,7 +3139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -3183,7 +3183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -3315,7 +3315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
@@ -3403,7 +3403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
@@ -3447,7 +3447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
@@ -3491,7 +3491,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>41</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>42</v>
       </c>
@@ -3579,7 +3579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>43</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>44</v>
       </c>
@@ -3667,7 +3667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>45</v>
       </c>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>46</v>
       </c>
@@ -3755,7 +3755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>47</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>48</v>
       </c>
@@ -3843,7 +3843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>49</v>
       </c>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>50</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>51</v>
       </c>
@@ -3975,7 +3975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>52</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>53</v>
       </c>
@@ -4063,7 +4063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>54</v>
       </c>
@@ -4107,7 +4107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>55</v>
       </c>
@@ -4151,7 +4151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>56</v>
       </c>
@@ -4195,7 +4195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>57</v>
       </c>
@@ -4239,7 +4239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>58</v>
       </c>
@@ -4283,7 +4283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>59</v>
       </c>
@@ -4327,7 +4327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>60</v>
       </c>
@@ -4371,7 +4371,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>61</v>
       </c>
@@ -4415,7 +4415,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>62</v>
       </c>
@@ -4459,7 +4459,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>63</v>
       </c>
@@ -4503,7 +4503,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>64</v>
       </c>
@@ -4547,7 +4547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>65</v>
       </c>
@@ -4591,7 +4591,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>66</v>
       </c>
@@ -4635,7 +4635,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>67</v>
       </c>
@@ -4679,7 +4679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>68</v>
       </c>
@@ -4723,7 +4723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>69</v>
       </c>
@@ -4767,7 +4767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>70</v>
       </c>
@@ -4811,7 +4811,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>71</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>72</v>
       </c>
@@ -4899,7 +4899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>73</v>
       </c>
@@ -4943,7 +4943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>74</v>
       </c>
@@ -4987,7 +4987,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>75</v>
       </c>
@@ -5031,7 +5031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>76</v>
       </c>
@@ -5075,7 +5075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>77</v>
       </c>
@@ -5119,7 +5119,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>78</v>
       </c>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>79</v>
       </c>
@@ -5207,7 +5207,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>80</v>
       </c>
@@ -5251,7 +5251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>81</v>
       </c>
@@ -5295,7 +5295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>82</v>
       </c>
@@ -5339,7 +5339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>83</v>
       </c>
@@ -5383,7 +5383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>84</v>
       </c>
@@ -5427,7 +5427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>85</v>
       </c>
@@ -5471,7 +5471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>86</v>
       </c>
@@ -5515,7 +5515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>87</v>
       </c>
@@ -5559,7 +5559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>88</v>
       </c>
@@ -5603,7 +5603,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>89</v>
       </c>
@@ -5647,7 +5647,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>90</v>
       </c>
@@ -5691,7 +5691,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>91</v>
       </c>
@@ -5735,7 +5735,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>92</v>
       </c>
@@ -5779,7 +5779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>93</v>
       </c>
@@ -5823,7 +5823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>94</v>
       </c>
@@ -5867,7 +5867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>95</v>
       </c>
@@ -5911,7 +5911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>96</v>
       </c>
@@ -5955,7 +5955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>97</v>
       </c>
@@ -5999,7 +5999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>98</v>
       </c>
@@ -6043,7 +6043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>99</v>
       </c>
@@ -6087,7 +6087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>100</v>
       </c>
@@ -6131,7 +6131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>101</v>
       </c>
@@ -6175,7 +6175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>102</v>
       </c>
@@ -6219,7 +6219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>103</v>
       </c>
@@ -6263,7 +6263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>104</v>
       </c>
@@ -6307,7 +6307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>105</v>
       </c>
@@ -6351,7 +6351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>106</v>
       </c>
@@ -6395,7 +6395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>107</v>
       </c>
@@ -6439,7 +6439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>108</v>
       </c>
@@ -6483,7 +6483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>109</v>
       </c>
@@ -6527,7 +6527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>110</v>
       </c>
@@ -6571,7 +6571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>111</v>
       </c>
@@ -6615,7 +6615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>112</v>
       </c>
@@ -6659,7 +6659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>113</v>
       </c>
@@ -6703,7 +6703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>114</v>
       </c>
@@ -6747,7 +6747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>115</v>
       </c>
@@ -6791,7 +6791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>116</v>
       </c>
@@ -6835,7 +6835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>117</v>
       </c>
@@ -6879,7 +6879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
@@ -6923,7 +6923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
@@ -6967,7 +6967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>122</v>
       </c>
@@ -7011,7 +7011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>123</v>
       </c>
@@ -7055,7 +7055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>124</v>
       </c>
@@ -7099,7 +7099,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>125</v>
       </c>
@@ -7143,7 +7143,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>126</v>
       </c>
@@ -7187,7 +7187,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>127</v>
       </c>
@@ -7231,7 +7231,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>128</v>
       </c>
@@ -7275,7 +7275,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>129</v>
       </c>
@@ -7319,7 +7319,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>130</v>
       </c>
@@ -7363,7 +7363,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>131</v>
       </c>
@@ -7407,7 +7407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>132</v>
       </c>
@@ -7451,7 +7451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>133</v>
       </c>
@@ -7495,7 +7495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>134</v>
       </c>
@@ -7539,7 +7539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>135</v>
       </c>
@@ -7583,7 +7583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>136</v>
       </c>
@@ -7627,7 +7627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>137</v>
       </c>
@@ -7671,7 +7671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>138</v>
       </c>
@@ -7715,7 +7715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>139</v>
       </c>
@@ -7759,7 +7759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>140</v>
       </c>
@@ -7803,7 +7803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>141</v>
       </c>
@@ -7847,7 +7847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>144</v>
       </c>
@@ -7891,7 +7891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>147</v>
       </c>
@@ -7935,7 +7935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>148</v>
       </c>
@@ -7979,7 +7979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>149</v>
       </c>
@@ -8023,7 +8023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>150</v>
       </c>
@@ -8067,7 +8067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>151</v>
       </c>
@@ -8111,7 +8111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>152</v>
       </c>
@@ -8155,7 +8155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>153</v>
       </c>
@@ -8199,7 +8199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>154</v>
       </c>
@@ -8243,7 +8243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>156</v>
       </c>
@@ -8287,7 +8287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>159</v>
       </c>
@@ -8331,7 +8331,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>160</v>
       </c>
@@ -8375,7 +8375,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>161</v>
       </c>
@@ -8419,7 +8419,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>162</v>
       </c>
@@ -8463,7 +8463,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>163</v>
       </c>
@@ -8507,7 +8507,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>164</v>
       </c>
@@ -8551,7 +8551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>165</v>
       </c>
@@ -8595,7 +8595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>166</v>
       </c>
@@ -8639,7 +8639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>167</v>
       </c>
@@ -8683,7 +8683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>168</v>
       </c>
@@ -8727,7 +8727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>169</v>
       </c>
@@ -8771,7 +8771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>170</v>
       </c>
@@ -8815,7 +8815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>171</v>
       </c>
@@ -8859,7 +8859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>172</v>
       </c>
@@ -8903,7 +8903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>173</v>
       </c>
@@ -8947,7 +8947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>174</v>
       </c>
@@ -8991,7 +8991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>175</v>
       </c>
@@ -9035,7 +9035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>176</v>
       </c>
@@ -9079,7 +9079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>177</v>
       </c>
@@ -9123,7 +9123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>178</v>
       </c>
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>179</v>
       </c>
@@ -9211,7 +9211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>180</v>
       </c>
@@ -9255,7 +9255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>181</v>
       </c>
@@ -9299,7 +9299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>182</v>
       </c>
@@ -9343,7 +9343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>183</v>
       </c>
@@ -9387,7 +9387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>185</v>
       </c>
@@ -9431,7 +9431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>186</v>
       </c>
@@ -9475,7 +9475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>188</v>
       </c>
@@ -9519,7 +9519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>189</v>
       </c>
@@ -9563,7 +9563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>190</v>
       </c>
@@ -9607,7 +9607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>191</v>
       </c>
@@ -9651,7 +9651,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>192</v>
       </c>
@@ -9695,7 +9695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>193</v>
       </c>
@@ -9739,7 +9739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>194</v>
       </c>
@@ -9783,7 +9783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>195</v>
       </c>
@@ -9827,7 +9827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>196</v>
       </c>
@@ -9871,7 +9871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>197</v>
       </c>
@@ -9915,7 +9915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>198</v>
       </c>
@@ -9959,7 +9959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>199</v>
       </c>
@@ -10003,7 +10003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>200</v>
       </c>
@@ -10047,7 +10047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>201</v>
       </c>
@@ -10091,7 +10091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>214</v>
       </c>
@@ -10102,40 +10102,40 @@
         <v>0</v>
       </c>
       <c r="D193" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E193" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F193" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G193" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H193" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I193" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J193" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K193" s="1">
         <v>0</v>
       </c>
       <c r="L193" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M193" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N193" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>215</v>
       </c>
@@ -10179,7 +10179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>216</v>
       </c>
@@ -10223,7 +10223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>217</v>
       </c>
@@ -10267,7 +10267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>218</v>
       </c>
@@ -10311,7 +10311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>219</v>
       </c>
@@ -10355,7 +10355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>220</v>
       </c>
@@ -10399,7 +10399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>223</v>
       </c>
@@ -10443,7 +10443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>224</v>
       </c>
@@ -10487,7 +10487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>225</v>
       </c>
@@ -10531,7 +10531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>226</v>
       </c>
@@ -10575,7 +10575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>227</v>
       </c>
@@ -10619,7 +10619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>228</v>
       </c>
@@ -10663,7 +10663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>229</v>
       </c>
@@ -10707,7 +10707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>230</v>
       </c>
@@ -10751,7 +10751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>231</v>
       </c>
@@ -10795,7 +10795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>234</v>
       </c>
@@ -10839,7 +10839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>235</v>
       </c>
@@ -10883,7 +10883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>238</v>
       </c>
@@ -10927,7 +10927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>239</v>
       </c>
@@ -10971,7 +10971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>240</v>
       </c>
@@ -11015,7 +11015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>241</v>
       </c>
@@ -11059,7 +11059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>242</v>
       </c>
@@ -11103,7 +11103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>243</v>
       </c>
@@ -11147,7 +11147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>244</v>
       </c>
@@ -11191,7 +11191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>245</v>
       </c>
@@ -11235,7 +11235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>248</v>
       </c>
@@ -11279,7 +11279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>249</v>
       </c>
@@ -11323,7 +11323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>250</v>
       </c>
@@ -11367,7 +11367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>257</v>
       </c>
@@ -11411,7 +11411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>258</v>
       </c>
@@ -11455,7 +11455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>259</v>
       </c>
@@ -11499,7 +11499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>263</v>
       </c>
@@ -11543,7 +11543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>264</v>
       </c>
@@ -11587,7 +11587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>266</v>
       </c>
@@ -11631,7 +11631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>267</v>
       </c>
@@ -11675,7 +11675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>268</v>
       </c>
@@ -11719,7 +11719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>269</v>
       </c>
@@ -11763,7 +11763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>270</v>
       </c>
@@ -11807,7 +11807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>271</v>
       </c>
@@ -11851,7 +11851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>272</v>
       </c>
@@ -11895,7 +11895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>278</v>
       </c>
@@ -11939,7 +11939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>279</v>
       </c>
@@ -11983,7 +11983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>280</v>
       </c>
@@ -12027,7 +12027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>281</v>
       </c>
@@ -12071,7 +12071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>282</v>
       </c>
@@ -12115,7 +12115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>283</v>
       </c>
@@ -12159,7 +12159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>284</v>
       </c>
@@ -12203,7 +12203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>286</v>
       </c>
@@ -12247,7 +12247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>287</v>
       </c>
@@ -12291,7 +12291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>288</v>
       </c>
@@ -12335,7 +12335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>290</v>
       </c>
@@ -12379,7 +12379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>291</v>
       </c>
@@ -12423,7 +12423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>298</v>
       </c>
@@ -12467,7 +12467,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>305</v>
       </c>
@@ -12511,7 +12511,7 @@
         <v>64000</v>
       </c>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>306</v>
       </c>
@@ -12555,7 +12555,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>307</v>
       </c>
@@ -12599,7 +12599,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>308</v>
       </c>
@@ -12643,7 +12643,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>309</v>
       </c>
@@ -12687,7 +12687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>310</v>
       </c>
@@ -12731,7 +12731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>311</v>
       </c>
@@ -12775,7 +12775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>312</v>
       </c>
@@ -12819,7 +12819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>314</v>
       </c>
@@ -12863,7 +12863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>315</v>
       </c>
@@ -12907,7 +12907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>316</v>
       </c>
@@ -12951,7 +12951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>317</v>
       </c>
@@ -12995,7 +12995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>318</v>
       </c>
@@ -13039,7 +13039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>320</v>
       </c>
@@ -13083,7 +13083,7 @@
         <v>28327</v>
       </c>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>321</v>
       </c>
@@ -13127,7 +13127,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>322</v>
       </c>
@@ -13171,7 +13171,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>323</v>
       </c>
@@ -13215,7 +13215,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>324</v>
       </c>
@@ -13259,7 +13259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>327</v>
       </c>
@@ -13303,7 +13303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>328</v>
       </c>
@@ -13347,7 +13347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>329</v>
       </c>
@@ -13391,7 +13391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>330</v>
       </c>
@@ -13435,7 +13435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>334</v>
       </c>
@@ -13479,7 +13479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>335</v>
       </c>
@@ -13523,7 +13523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>336</v>
       </c>
@@ -13567,7 +13567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>337</v>
       </c>
@@ -13611,7 +13611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>340</v>
       </c>
@@ -13655,7 +13655,7 @@
         <v>8400</v>
       </c>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>341</v>
       </c>
@@ -13699,7 +13699,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>342</v>
       </c>
@@ -13743,7 +13743,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>343</v>
       </c>
@@ -13787,7 +13787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>345</v>
       </c>
@@ -13831,7 +13831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>346</v>
       </c>
@@ -13875,7 +13875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>347</v>
       </c>
@@ -13919,7 +13919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>348</v>
       </c>
@@ -13963,7 +13963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>349</v>
       </c>
@@ -14007,7 +14007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>350</v>
       </c>
@@ -14051,7 +14051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>357</v>
       </c>
@@ -14095,7 +14095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>358</v>
       </c>
@@ -14139,7 +14139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>362</v>
       </c>
@@ -14183,7 +14183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>363</v>
       </c>
@@ -14227,7 +14227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>364</v>
       </c>
@@ -14271,7 +14271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>365</v>
       </c>
@@ -14315,7 +14315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>366</v>
       </c>
@@ -14359,7 +14359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>367</v>
       </c>
@@ -14403,7 +14403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>368</v>
       </c>
@@ -14447,7 +14447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>369</v>
       </c>
@@ -14491,7 +14491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>370</v>
       </c>
@@ -14535,7 +14535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>371</v>
       </c>
@@ -14579,7 +14579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>383</v>
       </c>
@@ -14623,7 +14623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>384</v>
       </c>
@@ -14667,7 +14667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>385</v>
       </c>
@@ -14711,7 +14711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>386</v>
       </c>
@@ -14755,7 +14755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>389</v>
       </c>
@@ -14799,7 +14799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>390</v>
       </c>
@@ -14843,7 +14843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>391</v>
       </c>
@@ -14887,7 +14887,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>392</v>
       </c>
@@ -14931,7 +14931,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>393</v>
       </c>
@@ -14975,7 +14975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>394</v>
       </c>
@@ -15019,7 +15019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>395</v>
       </c>
@@ -15063,7 +15063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>396</v>
       </c>
@@ -15107,7 +15107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>397</v>
       </c>
@@ -15151,7 +15151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>398</v>
       </c>
@@ -15195,7 +15195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>402</v>
       </c>
@@ -15239,7 +15239,7 @@
         <v>11400</v>
       </c>
     </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>403</v>
       </c>
@@ -15283,7 +15283,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>404</v>
       </c>
@@ -15327,7 +15327,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>405</v>
       </c>
@@ -15371,7 +15371,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>406</v>
       </c>
@@ -15415,7 +15415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>407</v>
       </c>
@@ -15459,7 +15459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>408</v>
       </c>
@@ -15503,7 +15503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>409</v>
       </c>
@@ -15547,7 +15547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>410</v>
       </c>
@@ -15591,7 +15591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>412</v>
       </c>
@@ -15635,7 +15635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>416</v>
       </c>
@@ -15679,7 +15679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>417</v>
       </c>
@@ -15723,7 +15723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>418</v>
       </c>
@@ -15767,7 +15767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>419</v>
       </c>
@@ -15811,7 +15811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>420</v>
       </c>
@@ -15855,7 +15855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>421</v>
       </c>
@@ -15899,7 +15899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>422</v>
       </c>
@@ -15943,7 +15943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>423</v>
       </c>
@@ -15987,7 +15987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>424</v>
       </c>
@@ -16031,7 +16031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>425</v>
       </c>
@@ -16075,7 +16075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>426</v>
       </c>
@@ -16119,7 +16119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>427</v>
       </c>
@@ -16163,7 +16163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>428</v>
       </c>
@@ -16207,7 +16207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>429</v>
       </c>
@@ -16251,7 +16251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>430</v>
       </c>
@@ -16295,7 +16295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>431</v>
       </c>
@@ -16339,7 +16339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>432</v>
       </c>
@@ -16383,7 +16383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>433</v>
       </c>
@@ -16427,7 +16427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>434</v>
       </c>
@@ -16471,7 +16471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>435</v>
       </c>
@@ -16515,7 +16515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>436</v>
       </c>
@@ -16559,7 +16559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>438</v>
       </c>
@@ -16603,7 +16603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>439</v>
       </c>
@@ -16647,7 +16647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>440</v>
       </c>
@@ -16691,7 +16691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>441</v>
       </c>
@@ -16735,7 +16735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>442</v>
       </c>
@@ -16779,7 +16779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>446</v>
       </c>
@@ -16823,7 +16823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>447</v>
       </c>
@@ -16867,7 +16867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>448</v>
       </c>
@@ -16911,7 +16911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>451</v>
       </c>
@@ -16955,7 +16955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>452</v>
       </c>
@@ -16999,7 +16999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>453</v>
       </c>
@@ -17043,7 +17043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>454</v>
       </c>
@@ -17087,7 +17087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>458</v>
       </c>
@@ -17131,7 +17131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>459</v>
       </c>
@@ -17175,7 +17175,7 @@
         <v>17581</v>
       </c>
     </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>460</v>
       </c>
@@ -17219,7 +17219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>461</v>
       </c>
@@ -17263,7 +17263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>462</v>
       </c>
@@ -17307,7 +17307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>463</v>
       </c>
@@ -17351,7 +17351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>464</v>
       </c>
@@ -17395,7 +17395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>465</v>
       </c>
@@ -17439,7 +17439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>466</v>
       </c>
@@ -17483,7 +17483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>467</v>
       </c>
@@ -17527,7 +17527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>468</v>
       </c>
@@ -17571,7 +17571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>469</v>
       </c>
@@ -17615,7 +17615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>471</v>
       </c>
@@ -17659,7 +17659,7 @@
         <v>2239</v>
       </c>
     </row>
-    <row r="365" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>472</v>
       </c>
@@ -17703,7 +17703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>473</v>
       </c>
@@ -17747,7 +17747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>474</v>
       </c>
@@ -17791,7 +17791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>475</v>
       </c>
@@ -17835,7 +17835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>476</v>
       </c>
@@ -17879,7 +17879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>477</v>
       </c>
@@ -17923,7 +17923,7 @@
         <v>56237</v>
       </c>
     </row>
-    <row r="371" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>478</v>
       </c>
@@ -17967,7 +17967,7 @@
         <v>56237</v>
       </c>
     </row>
-    <row r="372" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>479</v>
       </c>
@@ -18011,7 +18011,7 @@
         <v>59051</v>
       </c>
     </row>
-    <row r="373" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>480</v>
       </c>
@@ -18055,7 +18055,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="374" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>482</v>
       </c>
@@ -18099,7 +18099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>483</v>
       </c>
@@ -18143,7 +18143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>484</v>
       </c>
@@ -18187,7 +18187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>485</v>
       </c>
@@ -18231,7 +18231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>486</v>
       </c>
@@ -18275,7 +18275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>487</v>
       </c>
@@ -18319,7 +18319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>488</v>
       </c>
@@ -18363,7 +18363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>489</v>
       </c>
@@ -18407,7 +18407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>490</v>
       </c>
@@ -18451,7 +18451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>491</v>
       </c>
@@ -18495,7 +18495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>492</v>
       </c>
@@ -18539,7 +18539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>494</v>
       </c>
@@ -18583,7 +18583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="386" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>500</v>
       </c>
@@ -18627,7 +18627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>501</v>
       </c>
@@ -18671,7 +18671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>503</v>
       </c>
@@ -18715,7 +18715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>504</v>
       </c>
@@ -18759,7 +18759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>505</v>
       </c>
@@ -18803,7 +18803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>506</v>
       </c>
